--- a/snapshot/SystolicBloodPressure24HourMeanMeas.xlsx
+++ b/snapshot/SystolicBloodPressure24HourMeanMeas.xlsx
@@ -1212,7 +1212,7 @@
     <t>A set of codes that describe where on/in the body an observation or procedure took place</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/hspc/ValueSet/bpmeasbodylocationprecoord</t>
+    <t>http://hl7.org/fhir/hspc/ValueSet/bpMeasBodyLocationPrecoordVS</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1819,7 +1819,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="81.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.84765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
